--- a/medicine/Mort/Décès_en_1903/Décès_en_1903.xlsx
+++ b/medicine/Mort/Décès_en_1903/Décès_en_1903.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1903</t>
+          <t>Décès_en_1903</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1903</t>
+          <t>Décès_en_1903</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -526,7 +538,9 @@
           <t>Janvier</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>3 janvier : Carlos Tejedor, juriste et homme politique argentin (° 4 novembre 1817).
 5 janvier : Eleuterio Pagliano, patriote et peintre italien (° 2 mai 1826).
@@ -549,7 +563,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1903</t>
+          <t>Décès_en_1903</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -567,7 +581,9 @@
           <t>Février</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1er février : Rudolph von Delbrück, homme politique prussien et allemand (° 16 avril 1817).
 22 février :
@@ -584,7 +600,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1903</t>
+          <t>Décès_en_1903</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -602,7 +618,9 @@
           <t>Mars</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>2 mars : Gustav Radde, explorateur et naturaliste allemand (° 27 novembre 1831).
 12 mars :  Charles F. Escher, musicien, facteur de pianos et éditeur américain (° 1814).
@@ -617,7 +635,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1903</t>
+          <t>Décès_en_1903</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -635,7 +653,9 @@
           <t>Avril</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>6 avril : Jean Alfred Marioton, peintre français (° 3 septembre 1863).
 11 avril :
@@ -654,7 +674,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1903</t>
+          <t>Décès_en_1903</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -672,7 +692,9 @@
           <t>Mai</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>3 mai :
 Pierre Cuzacq, géomètre et écrivain français (° 22 novembre 1830).
@@ -690,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1903</t>
+          <t>Décès_en_1903</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -708,7 +730,9 @@
           <t>Juin</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>9 juin : Gaspar Núñez de Arce, poète, dramaturge, écrivain et homme politique espagnol (º 4 août 1834).
 11 juin : Alexandre Ier Obrénovitch, roi de Serbie, assassiné à Belgrade (° 14 août 1876).
@@ -727,7 +751,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1903</t>
+          <t>Décès_en_1903</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -745,7 +769,9 @@
           <t>Juillet</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>7 juillet : Amand Laroche, peintre français (° 23 octobre 1826).
 10 juillet : Paul Jamin, peintre français (° 9 février 1853).
@@ -762,7 +788,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1903</t>
+          <t>Décès_en_1903</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -780,7 +806,9 @@
           <t>Août</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>1er août : Calamity Jane, personnalité américaine de la conquête de l'Ouest (° 1er mai 1852).
 30 août : Vicente Fidel López, historien, avocat, juriste, universitaire et homme politique espagnol puis argentin (° 24 avril 1815).</t>
@@ -793,7 +821,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1903</t>
+          <t>Décès_en_1903</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -811,7 +839,9 @@
           <t>Septembre</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>1er septembre : Bernard Lazare, écrivain, journaliste (° 15 juin 1865).
 2 septembre : Antonin Fanart, peintre français (° 17 janvier 1831).
@@ -833,7 +863,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1903</t>
+          <t>Décès_en_1903</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -851,7 +881,9 @@
           <t>Octobre</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>7 octobre : Jacques Baseilhac, peintre et graveur français (° 9 février 1873).
 16 octobre : Jules Richomme, peintre de paysage, de genre et d'histoire français (° 9 septembre 1818).
@@ -868,7 +900,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1903</t>
+          <t>Décès_en_1903</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -886,7 +918,9 @@
           <t>Novembre</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>1er novembre : Theodor Mommsen, historien allemand (° 30 novembre 1817).
 5 novembre : Carl Johan Slotte, agriculteur et homme politique finlandais (° 20 janvier 1827).
@@ -903,7 +937,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1903</t>
+          <t>Décès_en_1903</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -921,7 +955,9 @@
           <t>Décembre</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>5 décembre : Robert Beyschlag, peintre allemand (° 1er juillet 1838).
 8 décembre : Herbert Spencer, philosophe britannique (° 27 avril 1820).
@@ -936,7 +972,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1903</t>
+          <t>Décès_en_1903</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -954,7 +990,9 @@
           <t>Date inconnue</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Mwanga II, roi du Bouganda (° 1868).
 Gianfrancesco Nardi, photographe et peintre italien (° 1833).
